--- a/August'21/02.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/02.08.2021/Daily Sales Info August-2021.xlsx
@@ -12964,9 +12964,9 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="S31" sqref="S31"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13061,7 +13061,7 @@
         <v>427128</v>
       </c>
       <c r="E4" s="2">
-        <v>1725</v>
+        <v>1625</v>
       </c>
       <c r="F4" s="2">
         <v>8900</v>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
@@ -20581,7 +20581,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
@@ -22131,7 +22131,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
@@ -23681,7 +23681,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
@@ -25231,7 +25231,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -25603,7 +25603,7 @@
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -27153,7 +27153,7 @@
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
@@ -28331,7 +28331,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -28703,7 +28703,7 @@
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
@@ -29881,7 +29881,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -30155,7 +30155,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -30253,7 +30253,7 @@
       </c>
       <c r="E4" s="2">
         <f>'1'!E29</f>
-        <v>1565</v>
+        <v>1465</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F29</f>
@@ -31515,7 +31515,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -31887,7 +31887,7 @@
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
@@ -34615,7 +34615,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -34987,7 +34987,7 @@
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
@@ -36165,7 +36165,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -36537,7 +36537,7 @@
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -38087,7 +38087,7 @@
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
@@ -39265,7 +39265,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -39637,7 +39637,7 @@
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
@@ -40815,7 +40815,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -41187,7 +41187,7 @@
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
@@ -42365,7 +42365,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -42737,7 +42737,7 @@
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
@@ -43915,7 +43915,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -44287,7 +44287,7 @@
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
@@ -45465,7 +45465,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
@@ -47015,7 +47015,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -47387,7 +47387,7 @@
       </c>
       <c r="E4" s="2">
         <f>'2'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'2'!F29</f>
@@ -48565,7 +48565,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -48937,7 +48937,7 @@
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -50487,7 +50487,7 @@
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
@@ -51665,7 +51665,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -52034,7 +52034,7 @@
       </c>
       <c r="E4" s="2">
         <f>'1'!E4</f>
-        <v>1725</v>
+        <v>1625</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F4</f>
@@ -53869,7 +53869,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -54237,7 +54237,7 @@
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'3'!F29</f>
@@ -55415,7 +55415,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -55787,7 +55787,7 @@
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
@@ -56968,7 +56968,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -57340,7 +57340,7 @@
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
@@ -58518,7 +58518,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -58890,7 +58890,7 @@
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
@@ -60068,7 +60068,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -60440,7 +60440,7 @@
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
@@ -61618,7 +61618,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
@@ -61990,7 +61990,7 @@
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
@@ -63168,7 +63168,7 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1505</v>
+        <v>1405</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
